--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,10 +100,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/NonIndividualSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/NonIndividualSpecialtiesVS</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SpecialtiesVS.xlsx
+++ b/output/ValueSet-SpecialtiesVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
